--- a/biology/Histoire de la zoologie et de la botanique/Robert_Lambert_Playfair/Robert_Lambert_Playfair.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Lambert_Playfair/Robert_Lambert_Playfair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Lambert Playfair est un militaire et un naturaliste britannique, né en 1828 et mort en 1899.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre d’une famille prestigieuse, il est le fils de George Playfair et Janet Ross. Sir Playfair fait ses études à St Andrews et à l’École militaire d’Addiscombe. Il rejoint en 1846 l’artillerie à Madras. Il se marie avec Agnes Ranken Webster (1832-1918). Il voyage beaucoup avant d’être embauché par Sir James Outram (1803-1863) comme assistant agent politique à Aden en 1854. Il devient agent politique à Zanzibar en 1862, poste qu’il conserve jusqu’en 1867. Il devient alors consul général en Algérie jusqu’en 1897.
 Il se retire alors à St Andrews où il reçoit un doctorat honoris causa en droit en 1899. Il est notamment membre de la Royal Geographical Society et de la section zoologique de la British Association for the Advancement of Science.
